--- a/fisheries_zero_selectivity.xlsx
+++ b/fisheries_zero_selectivity.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ofp-sam\2023-assessments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD6854F8-853C-4CCC-A3E4-4F96265E7C8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EA8F0CE-290C-4E74-B608-F3CF6A8C3D66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="9600" windowHeight="10340" xr2:uid="{C7E74EC3-30B4-4E49-BDD3-6391505C8194}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{C7E74EC3-30B4-4E49-BDD3-6391505C8194}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="30">
   <si>
     <t>LL</t>
   </si>
@@ -108,6 +108,24 @@
   </si>
   <si>
     <t>Could try</t>
+  </si>
+  <si>
+    <t>Is it bad?</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>Go easy</t>
+  </si>
+  <si>
+    <t>Linked</t>
+  </si>
+  <si>
+    <t>Done</t>
+  </si>
+  <si>
+    <t>x</t>
   </si>
 </sst>
 </file>
@@ -499,10 +517,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F1BE27B-BC61-4BED-9A7F-13B29B65A44B}">
-  <dimension ref="A1:G33"/>
+  <dimension ref="A1:J33"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28:G30"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -516,7 +534,7 @@
     <col min="7" max="7" width="8.453125" style="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>17</v>
       </c>
@@ -538,8 +556,17 @@
       <c r="G1" s="5" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -556,7 +583,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
@@ -576,7 +603,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
@@ -593,7 +620,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>4</v>
       </c>
@@ -613,7 +640,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>5</v>
       </c>
@@ -633,7 +660,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>6</v>
       </c>
@@ -653,7 +680,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>7</v>
       </c>
@@ -675,8 +702,11 @@
       <c r="G8" s="5">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="J8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>8</v>
       </c>
@@ -695,8 +725,11 @@
       <c r="G9" s="5">
         <v>2</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="J9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>9</v>
       </c>
@@ -716,7 +749,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -733,7 +766,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A12" s="3">
         <v>11</v>
       </c>
@@ -755,8 +788,11 @@
       <c r="G12" s="6">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="J12" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>12</v>
       </c>
@@ -778,8 +814,11 @@
       <c r="G13" s="5">
         <v>3</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="J13" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -801,8 +840,17 @@
       <c r="G14" s="7">
         <v>2</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H14" t="s">
+        <v>25</v>
+      </c>
+      <c r="I14" s="1">
+        <v>2</v>
+      </c>
+      <c r="J14" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A15" s="4">
         <v>14</v>
       </c>
@@ -824,8 +872,17 @@
       <c r="G15" s="8">
         <v>3</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H15" t="s">
+        <v>25</v>
+      </c>
+      <c r="I15" s="4">
+        <v>2</v>
+      </c>
+      <c r="J15" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>15</v>
       </c>
@@ -847,8 +904,17 @@
       <c r="G16" s="5">
         <v>2</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H16" t="s">
+        <v>25</v>
+      </c>
+      <c r="I16">
+        <v>2</v>
+      </c>
+      <c r="J16" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>16</v>
       </c>
@@ -870,8 +936,17 @@
       <c r="G17" s="5">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H17" t="s">
+        <v>25</v>
+      </c>
+      <c r="I17">
+        <v>2</v>
+      </c>
+      <c r="J17" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>17</v>
       </c>
@@ -890,8 +965,17 @@
       <c r="G18" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H18" t="s">
+        <v>25</v>
+      </c>
+      <c r="I18">
+        <v>1</v>
+      </c>
+      <c r="J18" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>18</v>
       </c>
@@ -908,7 +992,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>19</v>
       </c>
@@ -930,8 +1014,11 @@
       <c r="G20" s="5">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="J20" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>20</v>
       </c>
@@ -953,8 +1040,17 @@
       <c r="G21" s="5">
         <v>2</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H21" t="s">
+        <v>25</v>
+      </c>
+      <c r="I21">
+        <v>2</v>
+      </c>
+      <c r="J21" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>21</v>
       </c>
@@ -974,7 +1070,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>22</v>
       </c>
@@ -996,8 +1092,17 @@
       <c r="G23" s="5">
         <v>2</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H23" t="s">
+        <v>25</v>
+      </c>
+      <c r="I23">
+        <v>2</v>
+      </c>
+      <c r="J23" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>23</v>
       </c>
@@ -1017,7 +1122,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>24</v>
       </c>
@@ -1036,8 +1141,17 @@
       <c r="G25" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H25" t="s">
+        <v>25</v>
+      </c>
+      <c r="I25">
+        <v>1</v>
+      </c>
+      <c r="J25" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>25</v>
       </c>
@@ -1059,8 +1173,17 @@
       <c r="G26" s="5">
         <v>2</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H26" t="s">
+        <v>25</v>
+      </c>
+      <c r="I26">
+        <v>2</v>
+      </c>
+      <c r="J26" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>26</v>
       </c>
@@ -1082,8 +1205,17 @@
       <c r="G27" s="5">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H27" t="s">
+        <v>25</v>
+      </c>
+      <c r="I27">
+        <v>2</v>
+      </c>
+      <c r="J27" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A28" s="2">
         <v>27</v>
       </c>
@@ -1100,7 +1232,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>28</v>
       </c>
@@ -1119,8 +1251,17 @@
       <c r="G29" s="5">
         <v>2</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H29" t="s">
+        <v>25</v>
+      </c>
+      <c r="I29">
+        <v>1</v>
+      </c>
+      <c r="J29" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A30" s="3">
         <v>29</v>
       </c>
@@ -1143,7 +1284,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -1165,8 +1306,17 @@
       <c r="G31" s="7">
         <v>2</v>
       </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H31" t="s">
+        <v>27</v>
+      </c>
+      <c r="I31" s="1">
+        <v>2</v>
+      </c>
+      <c r="J31" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A32" s="4">
         <v>31</v>
       </c>
@@ -1187,6 +1337,15 @@
       </c>
       <c r="G32" s="8">
         <v>3</v>
+      </c>
+      <c r="H32" t="s">
+        <v>27</v>
+      </c>
+      <c r="I32" s="4">
+        <v>2</v>
+      </c>
+      <c r="J32" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.35">
